--- a/QAlegend/src/main/java/resources/userDetails.xlsx
+++ b/QAlegend/src/main/java/resources/userDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19770" windowHeight="6540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:Q20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Prefix</t>
   </si>
@@ -30,9 +31,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Useraname</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -51,10 +49,13 @@
     <t>archanaan91@gmail.com</t>
   </si>
   <si>
-    <t>archanaan</t>
-  </si>
-  <si>
     <t>archana@91</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Role Name</t>
   </si>
 </sst>
 </file>
@@ -401,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -429,36 +430,36 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -473,12 +474,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/QAlegend/src/main/java/resources/userDetails.xlsx
+++ b/QAlegend/src/main/java/resources/userDetails.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="19770" windowHeight="6540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15750" windowHeight="6540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:Q20"/>
+  <oleSize ref="A1:P20"/>
 </workbook>
 </file>
 
@@ -476,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -498,6 +500,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
@@ -507,4 +521,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/QAlegend/src/main/java/resources/userDetails.xlsx
+++ b/QAlegend/src/main/java/resources/userDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15750" windowHeight="6540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="4125"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:P20"/>
+  <oleSize ref="A1:I12"/>
 </workbook>
 </file>
 
@@ -404,7 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -527,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
